--- a/public/data/lime/lime_table_namibia.xlsx
+++ b/public/data/lime/lime_table_namibia.xlsx
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.98</v>
+        <v>0.15</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.22</v>
+        <v>0.62</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.58</v>
+        <v>0.93</v>
       </c>
       <c r="K22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.69</v>
+        <v>0.78</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.19</v>
+        <v>0.58</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="K25" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.16</v>
+        <v>0.64</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2730,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.71</v>
+        <v>0.98</v>
       </c>
       <c r="K27" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.23</v>
+        <v>0.55</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -4187,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.63</v>
+        <v>0.99</v>
       </c>
       <c r="K58" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -4328,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.55</v>
+        <v>0.69</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -4375,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.43</v>
+        <v>0.82</v>
       </c>
       <c r="K62" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4422,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.57</v>
+        <v>0.94</v>
       </c>
       <c r="K63" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.09</v>
+        <v>0.31</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.58</v>
+        <v>0.85</v>
       </c>
       <c r="K98" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.45</v>
+        <v>0.26</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6443,16 +6443,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="K106" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="L106" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
